--- a/tabela_conversao_20240204_223144.xlsx
+++ b/tabela_conversao_20240204_223144.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/pyqt6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63fbdbda17b5124d/Área de Trabalho/Programa git/pyqt6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_23F921ED5063CB239821405197008EF36BE098C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0D2F62-E62A-4270-87D4-85CAB60DADAB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_23F921ED5063CB239821405197008EF36BE098C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38551C01-8AB8-47B4-95EB-30A13A51098D}"/>
   <bookViews>
-    <workbookView xWindow="5510" yWindow="3540" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,10 +490,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,21 +782,21 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -859,7 +855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -889,7 +885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -919,7 +915,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -949,7 +945,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -979,7 +975,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1039,7 +1035,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1069,7 +1065,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1095,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +1125,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1189,7 +1185,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1245,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1279,7 +1275,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +1305,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1335,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1395,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1429,7 +1425,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1459,7 +1455,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1485,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1519,7 +1515,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1549,7 +1545,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1579,7 +1575,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1609,7 +1605,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1635,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1669,7 +1665,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1699,7 +1695,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1759,7 +1755,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1789,7 +1785,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1819,7 +1815,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1849,7 +1845,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1909,7 +1905,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1939,7 +1935,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1969,7 +1965,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2029,7 +2025,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
